--- a/transponering/mapping-deel-Gebouw-en-VBO.xlsx
+++ b/transponering/mapping-deel-Gebouw-en-VBO.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silfh\Dropbox\1 BGTservices\klanten\191101 (Geonovum)\team dis-geo\algemeen DIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B620EA5-875A-4AE6-A699-32046FF6C3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF70B810-5AE1-4B9D-A599-A7CDE7DF956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="105" windowWidth="37590" windowHeight="19755" tabRatio="331" xr2:uid="{FC9435B0-E85B-4538-B212-DC31D83D01A0}"/>
+    <workbookView xWindow="5445" yWindow="3105" windowWidth="31425" windowHeight="16575" tabRatio="331" firstSheet="1" activeTab="4" xr2:uid="{FC9435B0-E85B-4538-B212-DC31D83D01A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Gebouw" sheetId="1" r:id="rId1"/>
     <sheet name="verblijfsobject" sheetId="4" r:id="rId2"/>
     <sheet name="gebouwcomponent" sheetId="5" r:id="rId3"/>
     <sheet name="Openbouwwerk" sheetId="6" r:id="rId4"/>
+    <sheet name="installatie" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="335">
   <si>
     <t>Bedrijfsgebouw</t>
   </si>
@@ -973,12 +974,153 @@
   <si>
     <t>onder deze voorwaarden, wordt er een nieuwe versie van het object gecreerd, met alle attributen gevuld vanuit de laatste versie</t>
   </si>
+  <si>
+    <t>installaties</t>
+  </si>
+  <si>
+    <t>INSTALLATIES</t>
+  </si>
+  <si>
+    <t>Constructie die een technisch samenhangend systeem betreft dat een bepaald doel dient</t>
+  </si>
+  <si>
+    <t>BGT/IMgeo2.2</t>
+  </si>
+  <si>
+    <t>Identificatie</t>
+  </si>
+  <si>
+    <t>Unieke aanduiding van een installatie</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Aanduiding van het soort installatie</t>
+  </si>
+  <si>
+    <t>Fase van de levenscyclus waarin een installatie zich bevindt</t>
+  </si>
+  <si>
+    <t>Kast</t>
+  </si>
+  <si>
+    <t>Constructie met een permanent karakter dat dient om iets in te bergen en te beschermen</t>
+  </si>
+  <si>
+    <t>Sirene</t>
+  </si>
+  <si>
+    <t>Installatie welke geluiden van variabele toonhoogte kan voortbrengen om de bevolking te waarschuwen voor gevaarlijke situaties</t>
+  </si>
+  <si>
+    <t>Verlichtingsarmatuur</t>
+  </si>
+  <si>
+    <t>Installatie bedoeld voor verlichten van de openbare ruimte</t>
+  </si>
+  <si>
+    <t>Windturbine</t>
+  </si>
+  <si>
+    <t>Turbine waarin winddruk omgezet wordt in mechanische energie</t>
+  </si>
+  <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>Installatie gericht op het verticaal vervoeren van personen en goederen</t>
+  </si>
+  <si>
+    <t>Oplaadpunt</t>
+  </si>
+  <si>
+    <t>Systeem voor opladen van elektrische auto's</t>
+  </si>
+  <si>
+    <t>Pomp</t>
+  </si>
+  <si>
+    <t>Technische inrichting om vloeistoffen en/of gassen te verplaatsen</t>
+  </si>
+  <si>
+    <t>Zonnepanelen</t>
+  </si>
+  <si>
+    <t>Installatie om zonne-energie om te zetten in energie</t>
+  </si>
+  <si>
+    <t>BGT/Imgeo2.2</t>
+  </si>
+  <si>
+    <t>objecttype Kast</t>
+  </si>
+  <si>
+    <t>paal: typePaalPlus</t>
+  </si>
+  <si>
+    <t>sirene</t>
+  </si>
+  <si>
+    <t>windturbine</t>
+  </si>
+  <si>
+    <t>pomp</t>
+  </si>
+  <si>
+    <t>Een apparaat dat geluiden van variabele toonhoogte kan voortbrengen met als functie waarschuwingsdoeleinden. (bron: IMGEO 2.0)</t>
+  </si>
+  <si>
+    <t>hier wordt alleen de armatuur bedoeld, in BGT staat het geheel van lichtmast inclusief armatuur.</t>
+  </si>
+  <si>
+    <t>lichtmast</t>
+  </si>
+  <si>
+    <t>Mast bestemd voor het dragen van een of meer verlichtingsarmaturen. (bron: CROW)</t>
+  </si>
+  <si>
+    <t>kast</t>
+  </si>
+  <si>
+    <t>Object met een permanent karakter dat dient om iets in te bergen en te beschermen.</t>
+  </si>
+  <si>
+    <t>semantische bedoelen we hetzelfde</t>
+  </si>
+  <si>
+    <t>Turbine waarin winddruk omgezet wordt in mechanische energie. (bron: BGT)</t>
+  </si>
+  <si>
+    <t>zonnepaneel</t>
+  </si>
+  <si>
+    <t>Een zonnepaneel is een paneel dat zonne-energie omzet in elektriciteit. (bron: Wikipedia)</t>
+  </si>
+  <si>
+    <t>in BGT staat in enkelvoud, en hier wordt het geheel van meerdere zonnepanelen bedoeld</t>
+  </si>
+  <si>
+    <t>Werktuig dat door middel van een verschil in druk vloeistoffen of gassen verplaatst. (bron: IMGEO 1.0)</t>
+  </si>
+  <si>
+    <t>nieuw type</t>
+  </si>
+  <si>
+    <t>Installatie: TypeInstallatiePlus</t>
+  </si>
+  <si>
+    <t>Installatie: geometrie2dGebouwInstallatie</t>
+  </si>
+  <si>
+    <t>in SOR model wordt aangegeven dat de geometrie een punt, een lijn of een vlak kan zijn. Uit BGT zijn het alleen punten.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,6 +1160,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFC83500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1190,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1285,12 +1433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1299,41 +1441,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1374,6 +1481,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1691,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA24D532-5941-4A9B-B168-F20D396FA9EF}">
   <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="B52" sqref="A52:XFD52"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1810,7 +1926,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="48" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2087,49 +2203,49 @@
       <c r="F38" s="23"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="2:10" s="64" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="63" t="s">
+    <row r="39" spans="2:10" s="39" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="40" t="s">
         <v>278</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="H39" s="68" t="s">
+      <c r="H39" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="I39" s="66" t="s">
+      <c r="I39" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="J39" s="65" t="s">
+      <c r="J39" s="40" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="2:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="63" t="s">
+    <row r="40" spans="2:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="H40" s="64" t="s">
+      <c r="H40" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="I40" s="66" t="s">
+      <c r="I40" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="J40" s="68" t="s">
+      <c r="J40" s="43" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2190,228 +2306,228 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65" t="s">
+      <c r="C44" s="39"/>
+      <c r="D44" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="68"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68" t="s">
+      <c r="F45" s="42"/>
+      <c r="G45" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="H45" s="68" t="s">
+      <c r="H45" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="I45" s="66" t="s">
+      <c r="I45" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J45" s="68"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="63"/>
-      <c r="C46" s="64" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="67"/>
-      <c r="G46" s="64" t="s">
+      <c r="F46" s="42"/>
+      <c r="G46" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="H46" s="64" t="s">
+      <c r="H46" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="I46" s="66" t="s">
+      <c r="I46" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J46" s="68"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" spans="2:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
-      <c r="C47" s="64" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F47" s="67"/>
-      <c r="G47" s="64" t="s">
+      <c r="F47" s="42"/>
+      <c r="G47" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="H47" s="68" t="s">
+      <c r="H47" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="I47" s="66" t="s">
+      <c r="I47" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J47" s="68"/>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="64" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F48" s="67"/>
-      <c r="G48" s="64" t="s">
+      <c r="F48" s="42"/>
+      <c r="G48" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H48" s="68" t="s">
+      <c r="H48" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="I48" s="66" t="s">
+      <c r="I48" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J48" s="68" t="s">
+      <c r="J48" s="43" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="C49" s="64" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="66" t="s">
+      <c r="E49" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="67"/>
-      <c r="G49" s="64" t="s">
+      <c r="F49" s="42"/>
+      <c r="G49" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="H49" s="64" t="s">
+      <c r="H49" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="I49" s="66" t="s">
+      <c r="I49" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J49" s="68"/>
+      <c r="J49" s="43"/>
     </row>
     <row r="50" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="63"/>
-      <c r="C50" s="64" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="65" t="s">
+      <c r="D50" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E50" s="66" t="s">
+      <c r="E50" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="64" t="s">
+      <c r="F50" s="42"/>
+      <c r="G50" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="H50" s="64" t="s">
+      <c r="H50" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="I50" s="66" t="s">
+      <c r="I50" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J50" s="68"/>
+      <c r="J50" s="43"/>
     </row>
     <row r="51" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="63"/>
-      <c r="C51" s="64" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="65" t="s">
+      <c r="D51" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="E51" s="66" t="s">
+      <c r="E51" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="F51" s="67"/>
-      <c r="G51" s="64" t="s">
+      <c r="F51" s="42"/>
+      <c r="G51" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="H51" s="64"/>
-      <c r="I51" s="66" t="s">
+      <c r="H51" s="39"/>
+      <c r="I51" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J51" s="68" t="s">
+      <c r="J51" s="43" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
-      <c r="C52" s="64" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="65" t="s">
+      <c r="D52" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="67"/>
-      <c r="G52" s="66" t="s">
+      <c r="F52" s="42"/>
+      <c r="G52" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="H52" s="64"/>
-      <c r="I52" s="66" t="s">
+      <c r="H52" s="39"/>
+      <c r="I52" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J52" s="68"/>
+      <c r="J52" s="43"/>
     </row>
     <row r="53" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="64"/>
-      <c r="C53" s="64" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E53" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64" t="s">
+      <c r="F53" s="39"/>
+      <c r="G53" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="H53" s="64"/>
-      <c r="I53" s="66" t="s">
+      <c r="H53" s="39"/>
+      <c r="I53" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J53" s="68" t="s">
+      <c r="J53" s="43" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2442,179 +2558,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F45FDD-9D06-4A49-8595-6C1A217C449E}">
   <dimension ref="B1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G31"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="38"/>
-    <col min="3" max="3" width="26.7109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="38" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" style="60" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="31"/>
+    <col min="3" max="3" width="26.7109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" style="35" customWidth="1"/>
     <col min="8" max="8" width="40.5703125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="21" style="38" customWidth="1"/>
-    <col min="10" max="10" width="57.28515625" style="60" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="38"/>
+    <col min="9" max="9" width="21" style="31" customWidth="1"/>
+    <col min="10" max="10" width="57.28515625" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+    <row r="1" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="24"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="37"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="37"/>
-      <c r="C2" s="39" t="s">
+    <row r="2" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="24"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="37"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="33" t="s">
+    <row r="3" spans="2:10" s="31" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="24"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="37"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="41" t="s">
+    <row r="4" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="24"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="37"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="41" t="s">
+    <row r="5" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="24"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="37"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="41" t="s">
+    <row r="6" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="24"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="37"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="43" t="s">
+    <row r="7" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="24"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+    <row r="8" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="24"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="37"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+    <row r="9" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="24"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="37"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+    <row r="10" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="24"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="44" t="s">
+    <row r="11" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="62"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="47"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+    <row r="12" spans="2:10" s="31" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -2623,707 +2739,789 @@
       <c r="H12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="52"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="52"/>
-      <c r="I14" s="52"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="52"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="52"/>
-      <c r="I16" s="52"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="52"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="52"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="52"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53" t="s">
+    <row r="13" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="51"/>
+      <c r="G13" s="35"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="51"/>
+      <c r="G14" s="35"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="51"/>
+      <c r="G15" s="35"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="51"/>
+      <c r="G16" s="35"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="51"/>
+      <c r="G17" s="35"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="51"/>
+      <c r="G18" s="35"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="51"/>
+      <c r="G19" s="35"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="2:10" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="54" t="s">
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="C22" s="56" t="s">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="2:10" s="31" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="56" t="s">
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I23" s="52" t="s">
+      <c r="I23" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C24" s="56" t="s">
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I24" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="56" t="s">
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="56" t="s">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="56" t="s">
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="56" t="s">
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I28" s="52" t="s">
+      <c r="I28" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="56" t="s">
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="56" t="s">
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="58" t="s">
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="2:10" s="31" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="52"/>
-      <c r="I32" s="52"/>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="53" t="s">
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="51"/>
+      <c r="G32" s="35"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="2:10" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="36" t="s">
+      <c r="G33" s="35"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C34" s="54" t="s">
+    <row r="34" spans="2:10" s="31" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="I34" s="52"/>
-    </row>
-    <row r="35" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C35" s="56" t="s">
+      <c r="E34" s="51"/>
+      <c r="G34" s="35"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="I35" s="52"/>
-    </row>
-    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="56" t="s">
+      <c r="E35" s="51"/>
+      <c r="G35" s="35"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C37" s="56" t="s">
+      <c r="E36" s="51"/>
+      <c r="G36" s="35"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="I37" s="52"/>
-    </row>
-    <row r="38" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C38" s="56" t="s">
+      <c r="E37" s="51"/>
+      <c r="G37" s="35"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="I38" s="52"/>
-    </row>
-    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="56" t="s">
+      <c r="E38" s="51"/>
+      <c r="G38" s="35"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="I39" s="52"/>
-    </row>
-    <row r="40" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C40" s="56" t="s">
+      <c r="E39" s="51"/>
+      <c r="G39" s="35"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="I40" s="52"/>
-    </row>
-    <row r="41" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C41" s="56" t="s">
+      <c r="E40" s="51"/>
+      <c r="G40" s="35"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="I41" s="52"/>
-    </row>
-    <row r="42" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C42" s="56" t="s">
+      <c r="E41" s="51"/>
+      <c r="G41" s="35"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="I42" s="52"/>
-    </row>
-    <row r="43" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C43" s="56" t="s">
+      <c r="E42" s="51"/>
+      <c r="G42" s="35"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="I43" s="52"/>
-    </row>
-    <row r="44" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C44" s="56" t="s">
+      <c r="E43" s="51"/>
+      <c r="G43" s="35"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="I44" s="52"/>
-    </row>
-    <row r="45" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C45" s="56" t="s">
+      <c r="E44" s="51"/>
+      <c r="G44" s="35"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="I45" s="52"/>
-    </row>
-    <row r="46" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C46" s="56" t="s">
+      <c r="E45" s="51"/>
+      <c r="G45" s="35"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="I46" s="52"/>
-    </row>
-    <row r="47" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C47" s="56" t="s">
+      <c r="E46" s="51"/>
+      <c r="G46" s="35"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="I47" s="52"/>
-    </row>
-    <row r="48" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C48" s="56" t="s">
+      <c r="E47" s="51"/>
+      <c r="G47" s="35"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="I48" s="52"/>
-    </row>
-    <row r="49" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C49" s="56" t="s">
+      <c r="E48" s="51"/>
+      <c r="G48" s="35"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" spans="2:10" s="31" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="I49" s="52"/>
-    </row>
-    <row r="50" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C50" s="56" t="s">
+      <c r="E49" s="51"/>
+      <c r="G49" s="35"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="I50" s="52"/>
-    </row>
-    <row r="51" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C51" s="56" t="s">
+      <c r="E50" s="51"/>
+      <c r="G50" s="35"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="I51" s="52"/>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C52" s="56" t="s">
+      <c r="E51" s="51"/>
+      <c r="G51" s="35"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="I52" s="52"/>
-    </row>
-    <row r="53" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C53" s="56" t="s">
+      <c r="E52" s="51"/>
+      <c r="G52" s="35"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="52"/>
-      <c r="I53" s="52"/>
-    </row>
-    <row r="54" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="58" t="s">
+      <c r="E53" s="51"/>
+      <c r="G53" s="35"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="2:10" s="31" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="I54" s="52"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="52"/>
-      <c r="I55" s="52"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="52"/>
-      <c r="I56" s="52"/>
-    </row>
-    <row r="57" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="53" t="s">
+      <c r="E54" s="51"/>
+      <c r="G54" s="35"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="51"/>
+      <c r="G55" s="35"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="51"/>
+      <c r="G56" s="35"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="2:10" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D57" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="F57" s="53" t="s">
+      <c r="F57" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H57" s="34" t="s">
+      <c r="G57" s="35"/>
+      <c r="H57" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I57" s="52" t="s">
+      <c r="I57" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="J57" s="36" t="s">
+      <c r="J57" s="34" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="53" t="s">
+    <row r="58" spans="2:10" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B58" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="H58" s="34" t="s">
+      <c r="G58" s="35"/>
+      <c r="H58" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I58" s="52" t="s">
+      <c r="I58" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J58" s="36" t="s">
+      <c r="J58" s="34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="53" t="s">
+    <row r="59" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="F59" s="53" t="s">
+      <c r="F59" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="H59" s="34" t="s">
+      <c r="G59" s="35"/>
+      <c r="H59" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I59" s="52" t="s">
+      <c r="I59" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C60" s="53" t="s">
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="2:10" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C60" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="G60" s="36" t="s">
+      <c r="G60" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H60" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="I60" s="52" t="s">
+      <c r="I60" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="J60" s="36" t="s">
+      <c r="J60" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="C61" s="53" t="s">
+    <row r="61" spans="2:10" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="C61" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="D61" s="53" t="s">
+      <c r="D61" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G61" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H61" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="I61" s="52" t="s">
+      <c r="I61" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J61" s="36" t="s">
+      <c r="J61" s="34" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C62" s="53" t="s">
+    <row r="62" spans="2:10" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C62" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="36" t="s">
+      <c r="G62" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="H62" s="34" t="s">
+      <c r="H62" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="I62" s="52" t="s">
+      <c r="I62" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J62" s="61" t="s">
+      <c r="J62" s="36" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="53" t="s">
+    <row r="63" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G63" s="36" t="s">
+      <c r="G63" s="34" t="s">
         <v>219</v>
       </c>
       <c r="H63" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="I63" s="52" t="s">
+      <c r="I63" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="C64" s="53" t="s">
+      <c r="J63" s="35"/>
+    </row>
+    <row r="64" spans="2:10" s="31" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="C64" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G64" s="36" t="s">
+      <c r="G64" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="H64" s="36" t="s">
+      <c r="H64" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="I64" s="52" t="s">
+      <c r="I64" s="51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="65" spans="3:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="C65" s="53" t="s">
+      <c r="J64" s="35"/>
+    </row>
+    <row r="65" spans="3:10" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C65" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E65" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G65" s="36" t="s">
+      <c r="G65" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="H65" s="34" t="s">
+      <c r="H65" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="I65" s="52" t="s">
+      <c r="I65" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J65" s="36" t="s">
+      <c r="J65" s="34" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3336,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81031F67-DD27-4224-8FAB-C8E74AECD03A}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,8 +3736,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+    <row r="13" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
@@ -3547,21 +3745,21 @@
         <v>281</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="43" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="71" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+    <row r="14" spans="1:10" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
       <c r="B14" s="9" t="s">
         <v>256</v>
       </c>
@@ -3569,31 +3767,31 @@
       <c r="D14" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="43" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="71" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+    <row r="15" spans="1:10" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="22"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="71" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+    <row r="16" spans="1:10" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
       <c r="B16" s="9" t="s">
         <v>44</v>
       </c>
@@ -3602,225 +3800,225 @@
         <v>255</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="22"/>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="71" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64" t="s">
+    <row r="17" spans="1:10" s="46" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64" t="s">
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="64" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="66" t="s">
+      <c r="H18" s="39"/>
+      <c r="I18" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64" t="s">
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="64" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="66" t="s">
+      <c r="H19" s="43"/>
+      <c r="I19" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64" t="s">
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" s="71" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64" t="s">
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="64" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="66" t="s">
+      <c r="H21" s="39"/>
+      <c r="I21" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64" t="s">
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="64" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="66" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="1:10" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64" t="s">
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="64" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="66" t="s">
+      <c r="H23" s="39"/>
+      <c r="I23" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J23" s="68"/>
-    </row>
-    <row r="24" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64" t="s">
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="J24" s="43" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64" t="s">
+    <row r="25" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="66" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="43" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3932,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669A8674-0CB3-4109-94BC-90E1E61A8E33}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:J24"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,7 +4139,7 @@
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="96.28515625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" style="47" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="37.140625" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
@@ -4132,8 +4330,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+    <row r="13" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
@@ -4141,21 +4339,21 @@
         <v>281</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="43" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+    <row r="14" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
       <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
@@ -4163,19 +4361,19 @@
       <c r="D14" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="41" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="71" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+    <row r="15" spans="1:10" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
       <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
@@ -4184,225 +4382,225 @@
         <v>255</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="22"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="71" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64" t="s">
+    <row r="16" spans="1:10" s="46" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64" t="s">
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="64" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="66" t="s">
+      <c r="H17" s="39"/>
+      <c r="I17" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64" t="s">
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="64" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="66" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64" t="s">
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" s="71" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64" t="s">
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="64" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="66" t="s">
+      <c r="H20" s="39"/>
+      <c r="I20" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64" t="s">
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="64" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="66" t="s">
+      <c r="H21" s="39"/>
+      <c r="I21" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64" t="s">
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:10" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="64" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="66" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64" t="s">
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="I23" s="66" t="s">
+      <c r="I23" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="43" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64" t="s">
+    <row r="24" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="66" t="s">
+      <c r="H24" s="39"/>
+      <c r="I24" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="J24" s="43" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4511,4 +4709,624 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8889FD6E-BB17-4303-8DB1-B0771B2ED0EC}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="23.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36" style="31" customWidth="1"/>
+    <col min="7" max="7" width="46" style="31" customWidth="1"/>
+    <col min="8" max="8" width="50.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="24" style="31" customWidth="1"/>
+    <col min="10" max="10" width="79" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="C29" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="J32" s="43"/>
+    </row>
+    <row r="33" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C33" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/transponering/mapping-deel-Gebouw-en-VBO.xlsx
+++ b/transponering/mapping-deel-Gebouw-en-VBO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silfh\Dropbox\1 BGTservices\klanten\191101 (Geonovum)\team dis-geo\algemeen DIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvandenbrink\Documents\github\disgeo-demo-3a\transponering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF70B810-5AE1-4B9D-A599-A7CDE7DF956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330104A-55EF-444E-9EB9-7F25424EA3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="3105" windowWidth="31425" windowHeight="16575" tabRatio="331" firstSheet="1" activeTab="4" xr2:uid="{FC9435B0-E85B-4538-B212-DC31D83D01A0}"/>
+    <workbookView xWindow="-38520" yWindow="-3825" windowWidth="38640" windowHeight="21240" tabRatio="331" xr2:uid="{FC9435B0-E85B-4538-B212-DC31D83D01A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Gebouw" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="340">
   <si>
     <t>Bedrijfsgebouw</t>
   </si>
@@ -1114,6 +1114,21 @@
   </si>
   <si>
     <t>in SOR model wordt aangegeven dat de geometrie een punt, een lijn of een vlak kan zijn. Uit BGT zijn het alleen punten.</t>
+  </si>
+  <si>
+    <t>deels geimplementeerd ivm scope keuze</t>
+  </si>
+  <si>
+    <t>BAG pand nil invullen</t>
+  </si>
+  <si>
+    <t>geimplementeerd</t>
+  </si>
+  <si>
+    <t>geimplementeerd (in code, configuratiesyntax nog in ontwikkeling)</t>
+  </si>
+  <si>
+    <t>niet in EMSO maar wel geimplementeerd</t>
   </si>
 </sst>
 </file>
@@ -1805,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA24D532-5941-4A9B-B168-F20D396FA9EF}">
-  <dimension ref="B2:J66"/>
+  <dimension ref="A2:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1826,7 +1841,7 @@
     <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>52</v>
       </c>
@@ -1834,7 +1849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
@@ -1842,7 +1857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1850,7 +1865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
@@ -1874,7 +1889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="14" t="s">
         <v>32</v>
       </c>
@@ -1888,7 +1903,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>58</v>
       </c>
@@ -1917,7 +1932,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>335</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
@@ -1930,7 +1948,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1959,7 @@
       <c r="F14" s="23"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1952,7 +1970,7 @@
       <c r="F15" s="23"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1963,7 +1981,7 @@
       <c r="F16" s="23"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
         <v>158</v>
@@ -1984,7 +2002,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +2013,7 @@
       <c r="F18" s="23"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +2024,7 @@
       <c r="F19" s="23"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2035,7 @@
       <c r="F20" s="23"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2028,7 +2046,7 @@
       <c r="F21" s="23"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2057,7 @@
       <c r="F22" s="23"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
@@ -2050,7 +2068,7 @@
       <c r="F23" s="23"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
@@ -2063,7 +2081,7 @@
       <c r="F24" s="23"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
@@ -2075,7 +2093,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>143</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
         <v>144</v>
@@ -2108,7 +2126,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
         <v>145</v>
@@ -2118,7 +2136,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="7"/>
@@ -2126,7 +2144,10 @@
       <c r="H29" s="24"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="C30" s="5" t="s">
         <v>20</v>
       </c>
@@ -2137,17 +2158,20 @@
       <c r="F30" s="23"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="23"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="23"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
@@ -2160,7 +2184,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2171,7 +2195,7 @@
       <c r="F34" s="23"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>38</v>
       </c>
@@ -2182,7 +2206,7 @@
       <c r="F35" s="23"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
         <v>40</v>
       </c>
@@ -2193,17 +2217,20 @@
       <c r="F36" s="23"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E37" s="7"/>
       <c r="F37" s="23"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="23"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="2:10" s="39" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="39" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>337</v>
+      </c>
       <c r="B39" s="38" t="s">
         <v>275</v>
       </c>
@@ -2226,7 +2253,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="2:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>337</v>
+      </c>
       <c r="B40" s="38" t="s">
         <v>276</v>
       </c>
@@ -2249,7 +2279,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="B41" s="25" t="s">
         <v>43</v>
       </c>
@@ -2265,7 +2298,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="B42" s="25" t="s">
         <v>46</v>
       </c>
@@ -2285,7 +2321,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="B43" s="25" t="s">
         <v>45</v>
       </c>
@@ -2305,7 +2344,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>338</v>
+      </c>
       <c r="B44" s="38" t="s">
         <v>44</v>
       </c>
@@ -2324,7 +2366,7 @@
       <c r="I44" s="41"/>
       <c r="J44" s="43"/>
     </row>
-    <row r="45" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B45" s="38"/>
       <c r="C45" s="39" t="s">
         <v>176</v>
@@ -2347,7 +2389,7 @@
       </c>
       <c r="J45" s="43"/>
     </row>
-    <row r="46" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="38"/>
       <c r="C46" s="39" t="s">
         <v>178</v>
@@ -2370,7 +2412,7 @@
       </c>
       <c r="J46" s="43"/>
     </row>
-    <row r="47" spans="2:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B47" s="38"/>
       <c r="C47" s="39" t="s">
         <v>180</v>
@@ -2393,7 +2435,7 @@
       </c>
       <c r="J47" s="43"/>
     </row>
-    <row r="48" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="38"/>
       <c r="C48" s="39" t="s">
         <v>182</v>
@@ -2576,7 +2618,7 @@
     <col min="11" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -2587,7 +2629,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
         <v>52</v>
@@ -2602,7 +2644,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="2:10" s="31" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
       <c r="C3" s="7"/>
       <c r="D3" s="11" t="s">
@@ -2615,7 +2657,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="7" t="s">
         <v>30</v>
@@ -2630,7 +2672,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>51</v>
@@ -2643,7 +2685,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="7" t="s">
         <v>53</v>
@@ -2656,7 +2698,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
         <v>49</v>
@@ -2669,7 +2711,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2680,7 +2722,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2691,7 +2733,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2702,7 +2744,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="14" t="s">
         <v>32</v>
@@ -2717,7 +2759,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="2:10" s="31" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>58</v>
       </c>
@@ -2746,49 +2788,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E13" s="51"/>
-      <c r="G13" s="35"/>
       <c r="I13" s="51"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E14" s="51"/>
-      <c r="G14" s="35"/>
       <c r="I14" s="51"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E15" s="51"/>
-      <c r="G15" s="35"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="51"/>
-      <c r="G16" s="35"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E17" s="51"/>
-      <c r="G17" s="35"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E18" s="51"/>
-      <c r="G18" s="35"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E19" s="51"/>
-      <c r="G19" s="35"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:10" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="32" t="s">
         <v>67</v>
       </c>
@@ -2798,16 +2826,14 @@
       <c r="F20" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="G20" s="35"/>
       <c r="H20" s="32" t="s">
         <v>198</v>
       </c>
       <c r="I20" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
@@ -2826,9 +2852,8 @@
       <c r="I21" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="2:10" s="31" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:9" ht="63" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>75</v>
       </c>
@@ -2847,9 +2872,8 @@
       <c r="I22" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="35"/>
-    </row>
-    <row r="23" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>77</v>
       </c>
@@ -2868,9 +2892,8 @@
       <c r="I23" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J23" s="35"/>
-    </row>
-    <row r="24" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>79</v>
       </c>
@@ -2889,9 +2912,8 @@
       <c r="I24" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J24" s="35"/>
-    </row>
-    <row r="25" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>81</v>
       </c>
@@ -2910,9 +2932,8 @@
       <c r="I25" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>83</v>
       </c>
@@ -2931,9 +2952,8 @@
       <c r="I26" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>85</v>
       </c>
@@ -2952,9 +2972,8 @@
       <c r="I27" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
@@ -2973,9 +2992,8 @@
       <c r="I28" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
@@ -2994,9 +3012,8 @@
       <c r="I29" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>91</v>
       </c>
@@ -3015,9 +3032,8 @@
       <c r="I30" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J30" s="35"/>
-    </row>
-    <row r="31" spans="2:10" s="31" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="5" t="s">
         <v>93</v>
       </c>
@@ -3036,28 +3052,24 @@
       <c r="I31" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E32" s="51"/>
-      <c r="G32" s="35"/>
       <c r="I32" s="51"/>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33" spans="2:10" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="32" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="35"/>
       <c r="I33" s="51"/>
       <c r="J33" s="34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="31" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>95</v>
       </c>
@@ -3065,11 +3077,9 @@
         <v>96</v>
       </c>
       <c r="E34" s="51"/>
-      <c r="G34" s="35"/>
       <c r="I34" s="51"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>97</v>
       </c>
@@ -3077,11 +3087,9 @@
         <v>98</v>
       </c>
       <c r="E35" s="51"/>
-      <c r="G35" s="35"/>
       <c r="I35" s="51"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>99</v>
       </c>
@@ -3089,11 +3097,9 @@
         <v>100</v>
       </c>
       <c r="E36" s="51"/>
-      <c r="G36" s="35"/>
       <c r="I36" s="51"/>
-      <c r="J36" s="35"/>
-    </row>
-    <row r="37" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>101</v>
       </c>
@@ -3101,11 +3107,9 @@
         <v>102</v>
       </c>
       <c r="E37" s="51"/>
-      <c r="G37" s="35"/>
       <c r="I37" s="51"/>
-      <c r="J37" s="35"/>
-    </row>
-    <row r="38" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>103</v>
       </c>
@@ -3113,11 +3117,9 @@
         <v>104</v>
       </c>
       <c r="E38" s="51"/>
-      <c r="G38" s="35"/>
       <c r="I38" s="51"/>
-      <c r="J38" s="35"/>
-    </row>
-    <row r="39" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>105</v>
       </c>
@@ -3125,11 +3127,9 @@
         <v>106</v>
       </c>
       <c r="E39" s="51"/>
-      <c r="G39" s="35"/>
       <c r="I39" s="51"/>
-      <c r="J39" s="35"/>
-    </row>
-    <row r="40" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>107</v>
       </c>
@@ -3137,11 +3137,9 @@
         <v>108</v>
       </c>
       <c r="E40" s="51"/>
-      <c r="G40" s="35"/>
       <c r="I40" s="51"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
@@ -3149,11 +3147,9 @@
         <v>110</v>
       </c>
       <c r="E41" s="51"/>
-      <c r="G41" s="35"/>
       <c r="I41" s="51"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>111</v>
       </c>
@@ -3161,11 +3157,9 @@
         <v>112</v>
       </c>
       <c r="E42" s="51"/>
-      <c r="G42" s="35"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="35"/>
-    </row>
-    <row r="43" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
         <v>113</v>
       </c>
@@ -3173,11 +3167,9 @@
         <v>114</v>
       </c>
       <c r="E43" s="51"/>
-      <c r="G43" s="35"/>
       <c r="I43" s="51"/>
-      <c r="J43" s="35"/>
-    </row>
-    <row r="44" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
         <v>115</v>
       </c>
@@ -3185,11 +3177,9 @@
         <v>116</v>
       </c>
       <c r="E44" s="51"/>
-      <c r="G44" s="35"/>
       <c r="I44" s="51"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
         <v>117</v>
       </c>
@@ -3197,11 +3187,9 @@
         <v>118</v>
       </c>
       <c r="E45" s="51"/>
-      <c r="G45" s="35"/>
       <c r="I45" s="51"/>
-      <c r="J45" s="35"/>
-    </row>
-    <row r="46" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
         <v>119</v>
       </c>
@@ -3209,11 +3197,9 @@
         <v>120</v>
       </c>
       <c r="E46" s="51"/>
-      <c r="G46" s="35"/>
       <c r="I46" s="51"/>
-      <c r="J46" s="35"/>
-    </row>
-    <row r="47" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
         <v>121</v>
       </c>
@@ -3221,11 +3207,9 @@
         <v>122</v>
       </c>
       <c r="E47" s="51"/>
-      <c r="G47" s="35"/>
       <c r="I47" s="51"/>
-      <c r="J47" s="35"/>
-    </row>
-    <row r="48" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
         <v>123</v>
       </c>
@@ -3233,11 +3217,9 @@
         <v>124</v>
       </c>
       <c r="E48" s="51"/>
-      <c r="G48" s="35"/>
       <c r="I48" s="51"/>
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49" spans="2:10" s="31" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
         <v>125</v>
       </c>
@@ -3245,11 +3227,9 @@
         <v>126</v>
       </c>
       <c r="E49" s="51"/>
-      <c r="G49" s="35"/>
       <c r="I49" s="51"/>
-      <c r="J49" s="35"/>
-    </row>
-    <row r="50" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
         <v>127</v>
       </c>
@@ -3257,11 +3237,9 @@
         <v>128</v>
       </c>
       <c r="E50" s="51"/>
-      <c r="G50" s="35"/>
       <c r="I50" s="51"/>
-      <c r="J50" s="35"/>
-    </row>
-    <row r="51" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
         <v>129</v>
       </c>
@@ -3269,11 +3247,9 @@
         <v>130</v>
       </c>
       <c r="E51" s="51"/>
-      <c r="G51" s="35"/>
       <c r="I51" s="51"/>
-      <c r="J51" s="35"/>
-    </row>
-    <row r="52" spans="2:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
         <v>131</v>
       </c>
@@ -3281,11 +3257,9 @@
         <v>132</v>
       </c>
       <c r="E52" s="51"/>
-      <c r="G52" s="35"/>
       <c r="I52" s="51"/>
-      <c r="J52" s="35"/>
-    </row>
-    <row r="53" spans="2:10" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
         <v>133</v>
       </c>
@@ -3293,11 +3267,9 @@
         <v>134</v>
       </c>
       <c r="E53" s="51"/>
-      <c r="G53" s="35"/>
       <c r="I53" s="51"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="2:10" s="31" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="5" t="s">
         <v>135</v>
       </c>
@@ -3305,23 +3277,17 @@
         <v>136</v>
       </c>
       <c r="E54" s="51"/>
-      <c r="G54" s="35"/>
       <c r="I54" s="51"/>
-      <c r="J54" s="35"/>
-    </row>
-    <row r="55" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E55" s="51"/>
-      <c r="G55" s="35"/>
       <c r="I55" s="51"/>
-      <c r="J55" s="35"/>
-    </row>
-    <row r="56" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E56" s="51"/>
-      <c r="G56" s="35"/>
       <c r="I56" s="51"/>
-      <c r="J56" s="35"/>
-    </row>
-    <row r="57" spans="2:10" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="32" t="s">
         <v>65</v>
       </c>
@@ -3334,7 +3300,6 @@
       <c r="F57" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="G57" s="35"/>
       <c r="H57" s="32" t="s">
         <v>198</v>
       </c>
@@ -3345,7 +3310,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="2:10" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B58" s="32" t="s">
         <v>69</v>
       </c>
@@ -3358,7 +3323,6 @@
       <c r="F58" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G58" s="35"/>
       <c r="H58" s="32" t="s">
         <v>198</v>
       </c>
@@ -3369,7 +3333,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="32" t="s">
         <v>71</v>
       </c>
@@ -3382,16 +3346,14 @@
       <c r="F59" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G59" s="35"/>
       <c r="H59" s="32" t="s">
         <v>198</v>
       </c>
       <c r="I59" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J59" s="35"/>
-    </row>
-    <row r="60" spans="2:10" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C60" s="32" t="s">
         <v>176</v>
       </c>
@@ -3414,7 +3376,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="2:10" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="C61" s="32" t="s">
         <v>208</v>
       </c>
@@ -3437,7 +3399,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="2:10" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C62" s="32" t="s">
         <v>182</v>
       </c>
@@ -3460,7 +3422,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="2:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C63" s="32" t="s">
         <v>217</v>
       </c>
@@ -3479,9 +3441,8 @@
       <c r="I63" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J63" s="35"/>
-    </row>
-    <row r="64" spans="2:10" s="31" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:10" ht="135" x14ac:dyDescent="0.25">
       <c r="C64" s="32" t="s">
         <v>221</v>
       </c>
@@ -3500,9 +3461,8 @@
       <c r="I64" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J64" s="35"/>
-    </row>
-    <row r="65" spans="3:10" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="3:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C65" s="32" t="s">
         <v>192</v>
       </c>
@@ -4130,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669A8674-0CB3-4109-94BC-90E1E61A8E33}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:J24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,7 +4291,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="39" t="s">
+        <v>337</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
@@ -4353,7 +4315,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="39" t="s">
+        <v>228</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
@@ -4373,7 +4337,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="9" t="s">
+        <v>338</v>
+      </c>
       <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
@@ -4605,7 +4571,9 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="B25" s="9" t="s">
         <v>169</v>
       </c>
@@ -4633,7 +4601,9 @@
       <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="B26" s="9"/>
       <c r="C26" s="24" t="s">
         <v>24</v>
@@ -4715,7 +4685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8889FD6E-BB17-4303-8DB1-B0771B2ED0EC}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/transponering/mapping-deel-Gebouw-en-VBO.xlsx
+++ b/transponering/mapping-deel-Gebouw-en-VBO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvandenbrink\Documents\github\disgeo-demo-3a\transponering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330104A-55EF-444E-9EB9-7F25424EA3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52832F41-482A-4E81-99B5-50F4ED388BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3825" windowWidth="38640" windowHeight="21240" tabRatio="331" xr2:uid="{FC9435B0-E85B-4538-B212-DC31D83D01A0}"/>
+    <workbookView xWindow="-27870" yWindow="-735" windowWidth="21600" windowHeight="11385" tabRatio="331" xr2:uid="{FC9435B0-E85B-4538-B212-DC31D83D01A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Gebouw" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="340">
   <si>
     <t>Bedrijfsgebouw</t>
   </si>
@@ -530,9 +530,6 @@
   </si>
   <si>
     <t>BGT/Imgeo</t>
-  </si>
-  <si>
-    <t>Gebouwcomponent: "hoort bij gebouw"</t>
   </si>
   <si>
     <t>open loods</t>
@@ -1129,6 +1126,9 @@
   </si>
   <si>
     <t>niet in EMSO maar wel geimplementeerd</t>
+  </si>
+  <si>
+    <t>buiten scope, relatie niet in bron aanwezig</t>
   </si>
 </sst>
 </file>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA24D532-5941-4A9B-B168-F20D396FA9EF}">
   <dimension ref="A2:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>31</v>
@@ -1990,7 +1990,7 @@
         <v>161</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>159</v>
@@ -2104,7 +2104,7 @@
         <v>161</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>141</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>20</v>
@@ -2170,18 +2170,18 @@
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33" s="23"/>
       <c r="I33" s="7"/>
       <c r="J33" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -2229,59 +2229,59 @@
     </row>
     <row r="39" spans="1:10" s="39" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B40" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D40" s="40" t="s">
-        <v>277</v>
-      </c>
       <c r="E40" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I40" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>43</v>
@@ -2295,12 +2295,12 @@
       <c r="F41" s="23"/>
       <c r="I41" s="7"/>
       <c r="J41" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>46</v>
@@ -2309,13 +2309,13 @@
         <v>137</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>146</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>45</v>
@@ -2332,10 +2332,10 @@
         <v>140</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>140</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>44</v>
@@ -2356,10 +2356,10 @@
         <v>139</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
@@ -2369,208 +2369,208 @@
     <row r="45" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B45" s="38"/>
       <c r="C45" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="40" t="s">
-        <v>177</v>
-      </c>
       <c r="E45" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="38"/>
       <c r="C46" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>179</v>
-      </c>
       <c r="E46" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I46" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B47" s="38"/>
       <c r="C47" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="40" t="s">
-        <v>181</v>
-      </c>
       <c r="E47" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I47" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="38"/>
       <c r="C48" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="40" t="s">
-        <v>183</v>
-      </c>
       <c r="E48" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="H48" s="43" t="s">
-        <v>215</v>
-      </c>
       <c r="I48" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J48" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B49" s="38"/>
       <c r="C49" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="40" t="s">
-        <v>185</v>
-      </c>
       <c r="E49" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="H49" s="39" t="s">
-        <v>237</v>
-      </c>
       <c r="I49" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J49" s="43"/>
     </row>
     <row r="50" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="38"/>
       <c r="C50" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="40" t="s">
-        <v>187</v>
-      </c>
       <c r="E50" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="H50" s="39" t="s">
-        <v>239</v>
-      </c>
       <c r="I50" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J50" s="43"/>
     </row>
     <row r="51" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="38"/>
       <c r="C51" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="40" t="s">
-        <v>189</v>
-      </c>
       <c r="E51" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="38"/>
       <c r="C52" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="40" t="s">
-        <v>191</v>
-      </c>
       <c r="E52" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J52" s="43"/>
     </row>
     <row r="53" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="39"/>
       <c r="C53" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="40" t="s">
-        <v>193</v>
-      </c>
       <c r="E53" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J53" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F45FDD-9D06-4A49-8595-6C1A217C449E}">
   <dimension ref="B1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2821,16 +2821,16 @@
         <v>67</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H20" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I20" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2841,16 +2841,16 @@
         <v>74</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>73</v>
       </c>
       <c r="H21" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I21" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="63" x14ac:dyDescent="0.25">
@@ -2861,16 +2861,16 @@
         <v>76</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>75</v>
       </c>
       <c r="H22" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2881,16 +2881,16 @@
         <v>78</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>77</v>
       </c>
       <c r="H23" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2901,16 +2901,16 @@
         <v>80</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>79</v>
       </c>
       <c r="H24" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2921,16 +2921,16 @@
         <v>82</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>81</v>
       </c>
       <c r="H25" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2941,16 +2941,16 @@
         <v>84</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>83</v>
       </c>
       <c r="H26" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I26" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I26" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2961,16 +2961,16 @@
         <v>86</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>85</v>
       </c>
       <c r="H27" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2981,16 +2981,16 @@
         <v>88</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>87</v>
       </c>
       <c r="H28" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3001,16 +3001,16 @@
         <v>90</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>89</v>
       </c>
       <c r="H29" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I29" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -3021,16 +3021,16 @@
         <v>92</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>91</v>
       </c>
       <c r="H30" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I30" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3041,16 +3041,16 @@
         <v>94</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>93</v>
       </c>
       <c r="H31" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -3062,11 +3062,11 @@
         <v>68</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -3295,19 +3295,19 @@
         <v>66</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H57" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I57" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57" s="34" t="s">
         <v>201</v>
-      </c>
-      <c r="J57" s="34" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="60" x14ac:dyDescent="0.25">
@@ -3318,19 +3318,19 @@
         <v>70</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H58" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I58" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I58" s="51" t="s">
-        <v>199</v>
-      </c>
       <c r="J58" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -3341,148 +3341,148 @@
         <v>72</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H59" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I59" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="I59" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C60" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="G60" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="H60" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="I60" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="J60" s="34" t="s">
         <v>206</v>
-      </c>
-      <c r="H60" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="I60" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="J60" s="34" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="C61" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="E61" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="G61" s="34" t="s">
+      <c r="H61" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="H61" s="34" t="s">
+      <c r="I61" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61" s="34" t="s">
         <v>211</v>
-      </c>
-      <c r="I61" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="J61" s="34" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C62" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="E62" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="G62" s="34" t="s">
+      <c r="H62" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="I62" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="J62" s="36" t="s">
         <v>215</v>
-      </c>
-      <c r="I62" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="J62" s="36" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C63" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="E63" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E63" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="G63" s="34" t="s">
+      <c r="H63" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="H63" s="31" t="s">
-        <v>220</v>
-      </c>
       <c r="I63" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="135" x14ac:dyDescent="0.25">
       <c r="C64" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="E64" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="G64" s="34" t="s">
+      <c r="H64" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="H64" s="34" t="s">
-        <v>224</v>
-      </c>
       <c r="I64" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="3:10" ht="60" x14ac:dyDescent="0.25">
       <c r="C65" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="G65" s="34" t="s">
+      <c r="H65" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="I65" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="J65" s="34" t="s">
         <v>226</v>
-      </c>
-      <c r="H65" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="I65" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="J65" s="34" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3494,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81031F67-DD27-4224-8FAB-C8E74AECD03A}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:J13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,7 +3531,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -3697,35 +3697,39 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="39" t="s">
+        <v>336</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="22"/>
       <c r="J13" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="39" t="s">
+        <v>339</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>162</v>
@@ -3735,7 +3739,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="22"/>
       <c r="J14" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -3751,13 +3755,15 @@
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="39" t="s">
+        <v>336</v>
+      </c>
       <c r="B16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="44"/>
@@ -3770,25 +3776,25 @@
       <c r="A17" s="39"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>177</v>
-      </c>
       <c r="E17" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>232</v>
-      </c>
       <c r="H17" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J17" s="43"/>
     </row>
@@ -3796,21 +3802,21 @@
       <c r="A18" s="39"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>179</v>
-      </c>
       <c r="E18" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J18" s="43"/>
     </row>
@@ -3818,21 +3824,21 @@
       <c r="A19" s="39"/>
       <c r="B19" s="38"/>
       <c r="C19" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>181</v>
-      </c>
       <c r="E19" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J19" s="43"/>
     </row>
@@ -3840,25 +3846,25 @@
       <c r="A20" s="39"/>
       <c r="B20" s="38"/>
       <c r="C20" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>183</v>
-      </c>
       <c r="E20" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J20" s="43"/>
     </row>
@@ -3866,21 +3872,21 @@
       <c r="A21" s="39"/>
       <c r="B21" s="38"/>
       <c r="C21" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>185</v>
-      </c>
       <c r="E21" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J21" s="43"/>
     </row>
@@ -3888,21 +3894,21 @@
       <c r="A22" s="39"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>187</v>
-      </c>
       <c r="E22" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J22" s="43"/>
     </row>
@@ -3910,21 +3916,21 @@
       <c r="A23" s="39"/>
       <c r="B23" s="38"/>
       <c r="C23" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>189</v>
-      </c>
       <c r="E23" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J23" s="43"/>
     </row>
@@ -3932,74 +3938,74 @@
       <c r="A24" s="39"/>
       <c r="B24" s="38"/>
       <c r="C24" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>191</v>
-      </c>
       <c r="E24" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>193</v>
-      </c>
       <c r="E25" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="41" t="s">
         <v>146</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>164</v>
+        <v>336</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>148</v>
@@ -4016,16 +4022,16 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>150</v>
@@ -4043,13 +4049,13 @@
         <v>152</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>152</v>
@@ -4062,22 +4068,22 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" t="s">
         <v>261</v>
-      </c>
-      <c r="D29" t="s">
-        <v>262</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29" t="s">
         <v>263</v>
-      </c>
-      <c r="H29" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4127,7 +4133,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -4292,38 +4298,38 @@
     </row>
     <row r="13" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="22"/>
       <c r="J13" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>155</v>
@@ -4333,19 +4339,19 @@
       <c r="H14" s="45"/>
       <c r="I14" s="22"/>
       <c r="J14" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="44"/>
@@ -4358,25 +4364,25 @@
       <c r="A16" s="39"/>
       <c r="B16" s="38"/>
       <c r="C16" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>177</v>
-      </c>
       <c r="E16" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>232</v>
-      </c>
       <c r="H16" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J16" s="43"/>
     </row>
@@ -4384,21 +4390,21 @@
       <c r="A17" s="39"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>179</v>
-      </c>
       <c r="E17" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J17" s="43"/>
     </row>
@@ -4406,21 +4412,21 @@
       <c r="A18" s="39"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>181</v>
-      </c>
       <c r="E18" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J18" s="43"/>
     </row>
@@ -4428,25 +4434,25 @@
       <c r="A19" s="39"/>
       <c r="B19" s="38"/>
       <c r="C19" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>183</v>
-      </c>
       <c r="E19" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J19" s="43"/>
     </row>
@@ -4454,21 +4460,21 @@
       <c r="A20" s="39"/>
       <c r="B20" s="38"/>
       <c r="C20" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>185</v>
-      </c>
       <c r="E20" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J20" s="43"/>
     </row>
@@ -4476,21 +4482,21 @@
       <c r="A21" s="39"/>
       <c r="B21" s="38"/>
       <c r="C21" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>187</v>
-      </c>
       <c r="E21" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J21" s="43"/>
     </row>
@@ -4498,21 +4504,21 @@
       <c r="A22" s="39"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>189</v>
-      </c>
       <c r="E22" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J22" s="43"/>
     </row>
@@ -4520,62 +4526,62 @@
       <c r="A23" s="39"/>
       <c r="B23" s="38"/>
       <c r="C23" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>191</v>
-      </c>
       <c r="E23" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G23" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>193</v>
-      </c>
       <c r="E24" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="41" t="s">
         <v>146</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>22</v>
@@ -4587,13 +4593,13 @@
         <v>163</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G25" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>146</v>
@@ -4602,7 +4608,7 @@
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="24" t="s">
@@ -4615,13 +4621,13 @@
         <v>163</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>168</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>146</v>
@@ -4638,7 +4644,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -4656,7 +4662,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -4706,7 +4712,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4715,7 +4721,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -4730,7 +4736,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -4745,7 +4751,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -4872,10 +4878,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>292</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -4883,74 +4889,74 @@
         <v>65</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="22"/>
       <c r="J17" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>294</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>298</v>
-      </c>
       <c r="E19" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>314</v>
-      </c>
       <c r="G19" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="H19" s="31" t="s">
         <v>323</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>324</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>146</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C20" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>300</v>
-      </c>
       <c r="E20" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F20" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="G20" s="31" t="s">
-        <v>316</v>
-      </c>
       <c r="H20" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>146</v>
@@ -4958,48 +4964,48 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C21" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>302</v>
-      </c>
       <c r="E21" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G21" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" s="31" t="s">
         <v>321</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>322</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>54</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>304</v>
-      </c>
       <c r="E22" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>146</v>
@@ -5007,56 +5013,56 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>306</v>
-      </c>
       <c r="E23" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>308</v>
-      </c>
       <c r="E24" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>54</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C25" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>310</v>
-      </c>
       <c r="E25" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>146</v>
@@ -5064,28 +5070,28 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C26" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="E26" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>313</v>
-      </c>
       <c r="F26" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G26" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>327</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>328</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>54</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -5093,205 +5099,205 @@
         <v>71</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C29" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>177</v>
-      </c>
       <c r="E29" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>232</v>
-      </c>
       <c r="H29" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J29" s="43"/>
     </row>
     <row r="30" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C30" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>179</v>
-      </c>
       <c r="E30" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J30" s="43"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>181</v>
-      </c>
       <c r="E31" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J31" s="43"/>
     </row>
     <row r="32" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C32" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>183</v>
-      </c>
       <c r="E32" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J32" s="43"/>
     </row>
     <row r="33" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C33" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="40" t="s">
-        <v>185</v>
-      </c>
       <c r="E33" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J33" s="43"/>
     </row>
     <row r="34" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C34" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>187</v>
-      </c>
       <c r="E34" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J34" s="43"/>
     </row>
     <row r="35" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="40" t="s">
-        <v>189</v>
-      </c>
       <c r="E35" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J35" s="43"/>
     </row>
     <row r="36" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C36" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>191</v>
-      </c>
       <c r="E36" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="I36" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C37" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>193</v>
-      </c>
       <c r="E37" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="41" t="s">
         <v>146</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
